--- a/data/trans_orig/P70C3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC329B68-2713-4EAA-A969-5D017F73536A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA0F3AE-AD89-4861-A57A-9D1F51B1A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{521FEB99-77F8-4881-9482-BE429A2FD660}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DE2A414-E27F-49C4-8AB2-362AD6E2D50D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="452">
   <si>
     <t>Población según si le resulta difícil concentrarse en su trabajo debido a sus responsabilidades familiares en 2023 (Tasa respuesta: 42,51%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>91,98%</t>
   </si>
   <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
   </si>
   <si>
     <t>86,86%</t>
   </si>
   <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,1315 +104,1288 @@
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
     <t>4,1%</t>
   </si>
   <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>Varias veces al año</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,36%</t>
+    <t>1,35%</t>
   </si>
   <si>
     <t>2,63%</t>
@@ -1830,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903F9448-7140-42C2-9574-4A3E447997DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADB611D-BD20-4F5A-85BC-8A0E75A66BC9}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2143,13 +2116,13 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2158,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2173,13 +2146,13 @@
         <v>419</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2188,19 +2161,19 @@
         <v>419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2209,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2224,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2239,13 +2212,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,16 +2472,16 @@
         <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
         <v>6</v>
@@ -2517,13 +2490,13 @@
         <v>7382</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -2532,13 +2505,13 @@
         <v>10447</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
@@ -2547,19 +2520,19 @@
         <v>17830</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
@@ -2568,13 +2541,13 @@
         <v>2918</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2583,13 +2556,13 @@
         <v>4322</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2598,13 +2571,13 @@
         <v>7240</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,7 +2633,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2672,13 +2645,13 @@
         <v>78331</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>89</v>
@@ -2687,13 +2660,13 @@
         <v>69282</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>168</v>
@@ -2702,13 +2675,13 @@
         <v>147614</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2696,13 @@
         <v>29683</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -2738,13 +2711,13 @@
         <v>27018</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -2753,13 +2726,13 @@
         <v>56701</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2747,13 @@
         <v>19768</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -2789,13 +2762,13 @@
         <v>14453</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -2804,13 +2777,13 @@
         <v>34221</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2798,13 @@
         <v>6487</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -2840,13 +2813,13 @@
         <v>8716</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -2855,7 +2828,7 @@
         <v>15203</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>147</v>
@@ -2867,7 +2840,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
         <v>14</v>
@@ -2894,7 +2867,7 @@
         <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>153</v>
@@ -2912,13 +2885,13 @@
         <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
@@ -2927,13 +2900,13 @@
         <v>2989</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2945,10 +2918,10 @@
         <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2957,13 +2930,13 @@
         <v>6396</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +2992,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3031,13 +3004,13 @@
         <v>104258</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -3046,13 +3019,13 @@
         <v>122362</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
@@ -3061,13 +3034,13 @@
         <v>226620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3055,13 @@
         <v>24467</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -3097,13 +3070,13 @@
         <v>37378</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>69</v>
@@ -3112,13 +3085,13 @@
         <v>61845</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3106,13 @@
         <v>8628</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -3148,13 +3121,13 @@
         <v>8722</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -3163,13 +3136,13 @@
         <v>17350</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3157,13 @@
         <v>13712</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -3199,13 +3172,13 @@
         <v>7522</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -3214,19 +3187,19 @@
         <v>21234</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>11</v>
@@ -3235,13 +3208,13 @@
         <v>17655</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -3250,13 +3223,13 @@
         <v>12874</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -3265,19 +3238,19 @@
         <v>30529</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
         <v>6</v>
@@ -3286,13 +3259,13 @@
         <v>5868</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3301,13 +3274,13 @@
         <v>5537</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -3316,13 +3289,13 @@
         <v>11404</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,7 +3351,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3390,13 +3363,13 @@
         <v>16781</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -3405,13 +3378,13 @@
         <v>12736</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>43</v>
@@ -3420,13 +3393,13 @@
         <v>29517</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3414,13 @@
         <v>84855</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H33" s="7">
         <v>194</v>
@@ -3456,13 +3429,13 @@
         <v>94488</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M33" s="7">
         <v>311</v>
@@ -3471,13 +3444,13 @@
         <v>179344</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3465,13 @@
         <v>13151</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -3507,13 +3480,13 @@
         <v>4851</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
@@ -3522,13 +3495,13 @@
         <v>18002</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3516,13 @@
         <v>8686</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -3558,13 +3531,13 @@
         <v>4958</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>23</v>
@@ -3573,19 +3546,19 @@
         <v>13645</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -3594,13 +3567,13 @@
         <v>1554</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -3609,13 +3582,13 @@
         <v>1247</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -3624,19 +3597,19 @@
         <v>2800</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3645,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3660,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3675,13 +3648,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,7 +3710,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3749,13 +3722,13 @@
         <v>51370</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H39" s="7">
         <v>59</v>
@@ -3764,13 +3737,13 @@
         <v>45175</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M39" s="7">
         <v>115</v>
@@ -3779,13 +3752,13 @@
         <v>96545</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3773,13 @@
         <v>22208</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H40" s="7">
         <v>26</v>
@@ -3815,13 +3788,13 @@
         <v>17844</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>52</v>
@@ -3830,13 +3803,13 @@
         <v>40052</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3824,13 @@
         <v>15194</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -3866,13 +3839,13 @@
         <v>6255</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M41" s="7">
         <v>26</v>
@@ -3881,13 +3854,13 @@
         <v>21449</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3875,13 @@
         <v>27039</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H42" s="7">
         <v>24</v>
@@ -3917,13 +3890,13 @@
         <v>16749</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>54</v>
@@ -3932,19 +3905,19 @@
         <v>43788</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="7">
         <v>16</v>
@@ -3953,13 +3926,13 @@
         <v>14298</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H43" s="7">
         <v>9</v>
@@ -3968,13 +3941,13 @@
         <v>5861</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M43" s="7">
         <v>25</v>
@@ -3983,19 +3956,19 @@
         <v>20159</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" s="7">
         <v>10</v>
@@ -4004,13 +3977,13 @@
         <v>8561</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -4019,13 +3992,13 @@
         <v>1059</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M44" s="7">
         <v>12</v>
@@ -4034,13 +4007,13 @@
         <v>9620</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,7 +4069,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4108,13 +4081,13 @@
         <v>217607</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H46" s="7">
         <v>287</v>
@@ -4123,13 +4096,13 @@
         <v>212662</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M46" s="7">
         <v>490</v>
@@ -4138,13 +4111,13 @@
         <v>430269</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4132,13 @@
         <v>71754</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H47" s="7">
         <v>90</v>
@@ -4174,13 +4147,13 @@
         <v>64568</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>324</v>
+        <v>88</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M47" s="7">
         <v>158</v>
@@ -4189,13 +4162,13 @@
         <v>136322</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4183,13 @@
         <v>20382</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>152</v>
+        <v>333</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H48" s="7">
         <v>21</v>
@@ -4225,13 +4198,13 @@
         <v>16438</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M48" s="7">
         <v>40</v>
@@ -4240,13 +4213,13 @@
         <v>36820</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>337</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4234,13 @@
         <v>20155</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H49" s="7">
         <v>26</v>
@@ -4276,13 +4249,13 @@
         <v>15681</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>341</v>
+        <v>46</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>98</v>
+        <v>343</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M49" s="7">
         <v>43</v>
@@ -4291,19 +4264,19 @@
         <v>35836</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>344</v>
+        <v>28</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
@@ -4312,13 +4285,13 @@
         <v>1122</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="H50" s="7">
         <v>19</v>
@@ -4327,10 +4300,10 @@
         <v>12244</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>348</v>
+        <v>250</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>349</v>
@@ -4345,16 +4318,16 @@
         <v>350</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>193</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" s="7">
         <v>6</v>
@@ -4363,13 +4336,13 @@
         <v>4830</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H51" s="7">
         <v>8</v>
@@ -4378,13 +4351,13 @@
         <v>6276</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M51" s="7">
         <v>14</v>
@@ -4393,13 +4366,13 @@
         <v>11106</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,7 +4428,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4467,13 +4440,13 @@
         <v>309622</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H53" s="7">
         <v>168</v>
@@ -4482,13 +4455,13 @@
         <v>144299</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M53" s="7">
         <v>381</v>
@@ -4497,13 +4470,13 @@
         <v>453921</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4491,13 @@
         <v>144022</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H54" s="7">
         <v>126</v>
@@ -4533,13 +4506,13 @@
         <v>109398</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M54" s="7">
         <v>250</v>
@@ -4548,13 +4521,13 @@
         <v>253421</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4542,13 @@
         <v>26017</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H55" s="7">
         <v>51</v>
@@ -4584,13 +4557,13 @@
         <v>42440</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>140</v>
+        <v>385</v>
       </c>
       <c r="M55" s="7">
         <v>77</v>
@@ -4602,10 +4575,10 @@
         <v>24</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4593,13 @@
         <v>8735</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H56" s="7">
         <v>17</v>
@@ -4635,13 +4608,13 @@
         <v>14428</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M56" s="7">
         <v>26</v>
@@ -4650,19 +4623,19 @@
         <v>23163</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>104</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C57" s="7">
         <v>8</v>
@@ -4671,13 +4644,13 @@
         <v>10960</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H57" s="7">
         <v>11</v>
@@ -4686,13 +4659,13 @@
         <v>8458</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>397</v>
+        <v>104</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M57" s="7">
         <v>19</v>
@@ -4701,10 +4674,10 @@
         <v>19418</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>402</v>
@@ -4713,7 +4686,7 @@
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" s="7">
         <v>5</v>
@@ -4725,10 +4698,10 @@
         <v>403</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H58" s="7">
         <v>3</v>
@@ -4737,13 +4710,13 @@
         <v>9035</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M58" s="7">
         <v>8</v>
@@ -4752,13 +4725,13 @@
         <v>15770</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>410</v>
+        <v>57</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>411</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4799,13 @@
         <v>1052351</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H60" s="7">
         <v>1072</v>
@@ -4841,13 +4814,13 @@
         <v>816329</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M60" s="7">
         <v>1997</v>
@@ -4856,13 +4829,13 @@
         <v>1868681</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>70</v>
+        <v>415</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4850,13 @@
         <v>417528</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H61" s="7">
         <v>563</v>
@@ -4892,13 +4865,13 @@
         <v>388222</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>424</v>
+        <v>330</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M61" s="7">
         <v>983</v>
@@ -4907,13 +4880,13 @@
         <v>805750</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>427</v>
+        <v>277</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4901,13 @@
         <v>146624</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>429</v>
+        <v>84</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="H62" s="7">
         <v>158</v>
@@ -4943,13 +4916,13 @@
         <v>118268</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>431</v>
+        <v>211</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M62" s="7">
         <v>293</v>
@@ -4958,13 +4931,13 @@
         <v>264892</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4952,13 @@
         <v>126396</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H63" s="7">
         <v>134</v>
@@ -4994,13 +4967,13 @@
         <v>95224</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M63" s="7">
         <v>244</v>
@@ -5009,19 +4982,19 @@
         <v>221620</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64" s="7">
         <v>57</v>
@@ -5030,13 +5003,13 @@
         <v>66876</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H64" s="7">
         <v>79</v>
@@ -5045,13 +5018,13 @@
         <v>56483</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M64" s="7">
         <v>136</v>
@@ -5060,19 +5033,19 @@
         <v>123358</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>452</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65" s="7">
         <v>32</v>
@@ -5081,13 +5054,13 @@
         <v>31900</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>453</v>
+        <v>260</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H65" s="7">
         <v>32</v>
@@ -5096,13 +5069,13 @@
         <v>29636</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>455</v>
+        <v>185</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>456</v>
+        <v>35</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
       <c r="M65" s="7">
         <v>64</v>
@@ -5111,13 +5084,13 @@
         <v>61536</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,7 +5146,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA0F3AE-AD89-4861-A57A-9D1F51B1A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BEBC8B9-C102-4D7F-8A4F-83CB4A4D0066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DE2A414-E27F-49C4-8AB2-362AD6E2D50D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B534C1-6FBC-4607-BFCA-CC5A50299DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1803,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADB611D-BD20-4F5A-85BC-8A0E75A66BC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9F8E6B-003D-4F7C-B5EF-86D76C8BFAD1}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70C3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BEBC8B9-C102-4D7F-8A4F-83CB4A4D0066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{055F22BF-E6F0-48CD-A825-2AFAA71DC58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B534C1-6FBC-4607-BFCA-CC5A50299DCF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{83132C12-C04B-479F-9C78-BD13B4FE2B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="461">
   <si>
     <t>Población según si le resulta difícil concentrarse en su trabajo debido a sus responsabilidades familiares en 2023 (Tasa respuesta: 42,51%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>91,98%</t>
   </si>
   <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>86,86%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,28 +104,28 @@
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
@@ -134,28 +134,28 @@
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>Varias veces al mes</t>
@@ -164,1228 +164,1255 @@
     <t>2,49%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>0,42%</t>
   </si>
   <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>1,3%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,35%</t>
+    <t>1,36%</t>
   </si>
   <si>
     <t>2,63%</t>
@@ -1803,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9F8E6B-003D-4F7C-B5EF-86D76C8BFAD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C79FE73-E1A0-4A60-A79D-D15F364F4225}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2116,13 +2143,13 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2131,13 +2158,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2146,13 +2173,13 @@
         <v>419</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2161,19 +2188,19 @@
         <v>419</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2182,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2197,13 +2224,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2212,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,16 +2499,16 @@
         <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7">
         <v>6</v>
@@ -2490,13 +2517,13 @@
         <v>7382</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -2505,13 +2532,13 @@
         <v>10447</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
@@ -2520,19 +2547,19 @@
         <v>17830</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
@@ -2541,13 +2568,13 @@
         <v>2918</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2556,13 +2583,13 @@
         <v>4322</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2571,13 +2598,13 @@
         <v>7240</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,7 +2660,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2645,13 +2672,13 @@
         <v>78331</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>89</v>
@@ -2660,13 +2687,13 @@
         <v>69282</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>168</v>
@@ -2675,13 +2702,13 @@
         <v>147614</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2723,13 @@
         <v>29683</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -2711,13 +2738,13 @@
         <v>27018</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -2726,13 +2753,13 @@
         <v>56701</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2774,13 @@
         <v>19768</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -2762,13 +2789,13 @@
         <v>14453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -2777,13 +2804,13 @@
         <v>34221</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2825,13 @@
         <v>6487</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -2813,13 +2840,13 @@
         <v>8716</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -2828,7 +2855,7 @@
         <v>15203</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>147</v>
@@ -2840,7 +2867,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7">
         <v>14</v>
@@ -2867,7 +2894,7 @@
         <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>153</v>
@@ -2885,13 +2912,13 @@
         <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
@@ -2900,13 +2927,13 @@
         <v>2989</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2918,10 +2945,10 @@
         <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2930,13 +2957,13 @@
         <v>6396</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,7 +3019,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3004,13 +3031,13 @@
         <v>104258</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -3019,13 +3046,13 @@
         <v>122362</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
@@ -3034,13 +3061,13 @@
         <v>226620</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3082,13 @@
         <v>24467</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -3070,13 +3097,13 @@
         <v>37378</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>69</v>
@@ -3085,13 +3112,13 @@
         <v>61845</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3133,13 @@
         <v>8628</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -3121,13 +3148,13 @@
         <v>8722</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -3136,13 +3163,13 @@
         <v>17350</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3184,13 @@
         <v>13712</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -3172,13 +3199,13 @@
         <v>7522</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>22</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -3187,19 +3214,19 @@
         <v>21234</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7">
         <v>11</v>
@@ -3208,13 +3235,13 @@
         <v>17655</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -3223,13 +3250,13 @@
         <v>12874</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -3238,19 +3265,19 @@
         <v>30529</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="7">
         <v>6</v>
@@ -3259,13 +3286,13 @@
         <v>5868</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3274,13 +3301,13 @@
         <v>5537</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -3289,13 +3316,13 @@
         <v>11404</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,7 +3378,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3363,13 +3390,13 @@
         <v>16781</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -3378,13 +3405,13 @@
         <v>12736</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>43</v>
@@ -3393,13 +3420,13 @@
         <v>29517</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3441,13 @@
         <v>84855</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H33" s="7">
         <v>194</v>
@@ -3429,13 +3456,13 @@
         <v>94488</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M33" s="7">
         <v>311</v>
@@ -3444,13 +3471,13 @@
         <v>179344</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3492,13 @@
         <v>13151</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -3480,13 +3507,13 @@
         <v>4851</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
@@ -3495,13 +3522,13 @@
         <v>18002</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3543,13 @@
         <v>8686</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -3531,13 +3558,13 @@
         <v>4958</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>23</v>
@@ -3546,19 +3573,19 @@
         <v>13645</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -3567,13 +3594,13 @@
         <v>1554</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -3582,13 +3609,13 @@
         <v>1247</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -3597,19 +3624,19 @@
         <v>2800</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>54</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3618,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3633,13 +3660,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3648,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,7 +3737,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3722,13 +3749,13 @@
         <v>51370</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H39" s="7">
         <v>59</v>
@@ -3737,13 +3764,13 @@
         <v>45175</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M39" s="7">
         <v>115</v>
@@ -3752,13 +3779,13 @@
         <v>96545</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3800,13 @@
         <v>22208</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H40" s="7">
         <v>26</v>
@@ -3788,13 +3815,13 @@
         <v>17844</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M40" s="7">
         <v>52</v>
@@ -3803,13 +3830,13 @@
         <v>40052</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3851,13 @@
         <v>15194</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -3839,13 +3866,13 @@
         <v>6255</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M41" s="7">
         <v>26</v>
@@ -3854,13 +3881,13 @@
         <v>21449</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3902,13 @@
         <v>27039</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H42" s="7">
         <v>24</v>
@@ -3890,13 +3917,13 @@
         <v>16749</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M42" s="7">
         <v>54</v>
@@ -3905,19 +3932,19 @@
         <v>43788</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="7">
         <v>16</v>
@@ -3926,13 +3953,13 @@
         <v>14298</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H43" s="7">
         <v>9</v>
@@ -3941,13 +3968,13 @@
         <v>5861</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M43" s="7">
         <v>25</v>
@@ -3956,19 +3983,19 @@
         <v>20159</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="7">
         <v>10</v>
@@ -3977,13 +4004,13 @@
         <v>8561</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -3992,13 +4019,13 @@
         <v>1059</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M44" s="7">
         <v>12</v>
@@ -4007,13 +4034,13 @@
         <v>9620</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4096,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4081,13 +4108,13 @@
         <v>217607</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H46" s="7">
         <v>287</v>
@@ -4096,13 +4123,13 @@
         <v>212662</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M46" s="7">
         <v>490</v>
@@ -4111,13 +4138,13 @@
         <v>430269</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4159,13 @@
         <v>71754</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H47" s="7">
         <v>90</v>
@@ -4147,13 +4174,13 @@
         <v>64568</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>88</v>
+        <v>324</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M47" s="7">
         <v>158</v>
@@ -4162,13 +4189,13 @@
         <v>136322</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4210,13 @@
         <v>20382</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>333</v>
+        <v>152</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H48" s="7">
         <v>21</v>
@@ -4198,13 +4225,13 @@
         <v>16438</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M48" s="7">
         <v>40</v>
@@ -4213,13 +4240,13 @@
         <v>36820</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4261,13 @@
         <v>20155</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H49" s="7">
         <v>26</v>
@@ -4249,13 +4276,13 @@
         <v>15681</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>46</v>
+        <v>341</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>343</v>
+        <v>98</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M49" s="7">
         <v>43</v>
@@ -4264,19 +4291,19 @@
         <v>35836</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
@@ -4285,13 +4312,13 @@
         <v>1122</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>197</v>
+        <v>54</v>
       </c>
       <c r="H50" s="7">
         <v>19</v>
@@ -4300,10 +4327,10 @@
         <v>12244</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>349</v>
@@ -4318,16 +4345,16 @@
         <v>350</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>304</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="7">
         <v>6</v>
@@ -4336,13 +4363,13 @@
         <v>4830</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H51" s="7">
         <v>8</v>
@@ -4351,13 +4378,13 @@
         <v>6276</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M51" s="7">
         <v>14</v>
@@ -4366,13 +4393,13 @@
         <v>11106</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="Q51" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,7 +4455,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4440,13 +4467,13 @@
         <v>309622</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H53" s="7">
         <v>168</v>
@@ -4455,13 +4482,13 @@
         <v>144299</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M53" s="7">
         <v>381</v>
@@ -4470,13 +4497,13 @@
         <v>453921</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4518,13 @@
         <v>144022</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H54" s="7">
         <v>126</v>
@@ -4506,13 +4533,13 @@
         <v>109398</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M54" s="7">
         <v>250</v>
@@ -4521,13 +4548,13 @@
         <v>253421</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4569,13 @@
         <v>26017</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H55" s="7">
         <v>51</v>
@@ -4557,13 +4584,13 @@
         <v>42440</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K55" s="7" t="s">
-        <v>384</v>
-      </c>
       <c r="L55" s="7" t="s">
-        <v>385</v>
+        <v>140</v>
       </c>
       <c r="M55" s="7">
         <v>77</v>
@@ -4575,10 +4602,10 @@
         <v>24</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4620,13 @@
         <v>8735</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H56" s="7">
         <v>17</v>
@@ -4608,13 +4635,13 @@
         <v>14428</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M56" s="7">
         <v>26</v>
@@ -4623,19 +4650,19 @@
         <v>23163</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>313</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="7">
         <v>8</v>
@@ -4644,13 +4671,13 @@
         <v>10960</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H57" s="7">
         <v>11</v>
@@ -4659,13 +4686,13 @@
         <v>8458</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>104</v>
+        <v>397</v>
       </c>
       <c r="K57" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M57" s="7">
         <v>19</v>
@@ -4674,10 +4701,10 @@
         <v>19418</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>402</v>
@@ -4686,7 +4713,7 @@
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="7">
         <v>5</v>
@@ -4698,10 +4725,10 @@
         <v>403</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H58" s="7">
         <v>3</v>
@@ -4710,13 +4737,13 @@
         <v>9035</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M58" s="7">
         <v>8</v>
@@ -4725,13 +4752,13 @@
         <v>15770</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>57</v>
+        <v>410</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>146</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4826,13 @@
         <v>1052351</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H60" s="7">
         <v>1072</v>
@@ -4814,13 +4841,13 @@
         <v>816329</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M60" s="7">
         <v>1997</v>
@@ -4829,13 +4856,13 @@
         <v>1868681</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>415</v>
+        <v>70</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4877,13 @@
         <v>417528</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H61" s="7">
         <v>563</v>
@@ -4865,13 +4892,13 @@
         <v>388222</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>330</v>
+        <v>424</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M61" s="7">
         <v>983</v>
@@ -4880,13 +4907,13 @@
         <v>805750</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>277</v>
+        <v>427</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4928,13 @@
         <v>146624</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>84</v>
+        <v>429</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="H62" s="7">
         <v>158</v>
@@ -4916,13 +4943,13 @@
         <v>118268</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>211</v>
+        <v>431</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M62" s="7">
         <v>293</v>
@@ -4931,13 +4958,13 @@
         <v>264892</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4979,13 @@
         <v>126396</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H63" s="7">
         <v>134</v>
@@ -4967,13 +4994,13 @@
         <v>95224</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="M63" s="7">
         <v>244</v>
@@ -4982,19 +5009,19 @@
         <v>221620</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="7">
         <v>57</v>
@@ -5003,13 +5030,13 @@
         <v>66876</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H64" s="7">
         <v>79</v>
@@ -5018,13 +5045,13 @@
         <v>56483</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M64" s="7">
         <v>136</v>
@@ -5033,19 +5060,19 @@
         <v>123358</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>333</v>
+        <v>450</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>164</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65" s="7">
         <v>32</v>
@@ -5054,13 +5081,13 @@
         <v>31900</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>260</v>
+        <v>453</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H65" s="7">
         <v>32</v>
@@ -5069,13 +5096,13 @@
         <v>29636</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>185</v>
+        <v>455</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>35</v>
+        <v>456</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>447</v>
+        <v>347</v>
       </c>
       <c r="M65" s="7">
         <v>64</v>
@@ -5084,13 +5111,13 @@
         <v>61536</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,7 +5173,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{055F22BF-E6F0-48CD-A825-2AFAA71DC58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{793D6F6D-B327-46F9-BFFC-2FDF894EB67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{83132C12-C04B-479F-9C78-BD13B4FE2B5E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5E33B59F-3D75-46CD-8290-4F05545EFD16}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="455">
   <si>
     <t>Población según si le resulta difícil concentrarse en su trabajo debido a sus responsabilidades familiares en 2023 (Tasa respuesta: 42,51%)</t>
   </si>
@@ -71,1351 +71,1333 @@
     <t>Nunca/ casi nunca</t>
   </si>
   <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1830,7 +1812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C79FE73-E1A0-4A60-A79D-D15F364F4225}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98606A06-B50A-49B7-8A54-A1DA49D1AB4E}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1951,7 +1933,7 @@
         <v>185</v>
       </c>
       <c r="D4" s="7">
-        <v>149894</v>
+        <v>178749</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1966,7 +1948,7 @@
         <v>224</v>
       </c>
       <c r="I4" s="7">
-        <v>117159</v>
+        <v>125568</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1981,7 +1963,7 @@
         <v>409</v>
       </c>
       <c r="N4" s="7">
-        <v>267053</v>
+        <v>304317</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2002,7 +1984,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>6427</v>
+        <v>7948</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2017,7 +1999,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>11074</v>
+        <v>11701</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2032,7 +2014,7 @@
         <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>17501</v>
+        <v>19649</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2053,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>2579</v>
+        <v>2926</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2068,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>3605</v>
+        <v>3801</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2083,7 +2065,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>6184</v>
+        <v>6727</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2104,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>4059</v>
+        <v>4578</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2119,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2633</v>
+        <v>2826</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2134,7 +2116,7 @@
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>6692</v>
+        <v>7404</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2143,13 +2125,13 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2158,49 +2140,49 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2209,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2224,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2239,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>59</v>
@@ -2257,7 +2239,7 @@
         <v>202</v>
       </c>
       <c r="D10" s="7">
-        <v>162959</v>
+        <v>194201</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2272,7 +2254,7 @@
         <v>257</v>
       </c>
       <c r="I10" s="7">
-        <v>134890</v>
+        <v>144332</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>60</v>
@@ -2287,7 +2269,7 @@
         <v>459</v>
       </c>
       <c r="N10" s="7">
-        <v>297849</v>
+        <v>338533</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>60</v>
@@ -2310,7 +2292,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>124489</v>
+        <v>121177</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>62</v>
@@ -2325,7 +2307,7 @@
         <v>111</v>
       </c>
       <c r="I11" s="7">
-        <v>92654</v>
+        <v>86474</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>65</v>
@@ -2340,7 +2322,7 @@
         <v>206</v>
       </c>
       <c r="N11" s="7">
-        <v>217142</v>
+        <v>207651</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>68</v>
@@ -2361,7 +2343,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>34113</v>
+        <v>34411</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>71</v>
@@ -2376,7 +2358,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="7">
-        <v>26452</v>
+        <v>24579</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>74</v>
@@ -2391,7 +2373,7 @@
         <v>51</v>
       </c>
       <c r="N12" s="7">
-        <v>60565</v>
+        <v>58990</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>77</v>
@@ -2412,7 +2394,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>40906</v>
+        <v>42685</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>80</v>
@@ -2427,7 +2409,7 @@
         <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>21503</v>
+        <v>20188</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>83</v>
@@ -2442,7 +2424,7 @@
         <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>62409</v>
+        <v>62874</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>86</v>
@@ -2463,7 +2445,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>37523</v>
+        <v>38163</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -2478,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>24536</v>
+        <v>23015</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -2493,7 +2475,7 @@
         <v>52</v>
       </c>
       <c r="N14" s="7">
-        <v>62059</v>
+        <v>61177</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -2508,13 +2490,13 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
         <v>6</v>
       </c>
       <c r="D15" s="7">
-        <v>7382</v>
+        <v>7394</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>98</v>
@@ -2529,7 +2511,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="7">
-        <v>10447</v>
+        <v>9799</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>101</v>
@@ -2544,7 +2526,7 @@
         <v>21</v>
       </c>
       <c r="N15" s="7">
-        <v>17830</v>
+        <v>17192</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>104</v>
@@ -2559,19 +2541,19 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2918</v>
+        <v>2912</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>108</v>
@@ -2580,7 +2562,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>4322</v>
+        <v>4013</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -2595,16 +2577,16 @@
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>7240</v>
+        <v>6925</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2598,7 @@
         <v>173</v>
       </c>
       <c r="D17" s="7">
-        <v>247330</v>
+        <v>246741</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>60</v>
@@ -2631,7 +2613,7 @@
         <v>215</v>
       </c>
       <c r="I17" s="7">
-        <v>179914</v>
+        <v>168068</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>60</v>
@@ -2646,7 +2628,7 @@
         <v>388</v>
       </c>
       <c r="N17" s="7">
-        <v>427244</v>
+        <v>414810</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>60</v>
@@ -2660,7 +2642,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2669,46 +2651,46 @@
         <v>79</v>
       </c>
       <c r="D18" s="7">
-        <v>78331</v>
+        <v>77247</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>89</v>
       </c>
       <c r="I18" s="7">
-        <v>69282</v>
+        <v>65189</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>168</v>
       </c>
       <c r="N18" s="7">
-        <v>147614</v>
+        <v>142436</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,46 +2702,46 @@
         <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>29683</v>
+        <v>29155</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
       </c>
       <c r="I19" s="7">
-        <v>27018</v>
+        <v>25359</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
       </c>
       <c r="N19" s="7">
-        <v>56701</v>
+        <v>54515</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,46 +2753,46 @@
         <v>19</v>
       </c>
       <c r="D20" s="7">
-        <v>19768</v>
+        <v>19513</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
       </c>
       <c r="I20" s="7">
-        <v>14453</v>
+        <v>13687</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
       </c>
       <c r="N20" s="7">
-        <v>34221</v>
+        <v>33199</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,148 +2804,148 @@
         <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>6487</v>
+        <v>6311</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
       </c>
       <c r="I21" s="7">
-        <v>8716</v>
+        <v>8239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
       </c>
       <c r="N21" s="7">
-        <v>15203</v>
+        <v>14550</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
         <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>13905</v>
+        <v>13578</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>4933</v>
+        <v>4653</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>18838</v>
+        <v>18231</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>2989</v>
+        <v>2878</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>3407</v>
+        <v>3188</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
       </c>
       <c r="N23" s="7">
-        <v>6396</v>
+        <v>6066</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2957,7 @@
         <v>152</v>
       </c>
       <c r="D24" s="7">
-        <v>151163</v>
+        <v>148682</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>60</v>
@@ -2990,7 +2972,7 @@
         <v>168</v>
       </c>
       <c r="I24" s="7">
-        <v>127809</v>
+        <v>120315</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>60</v>
@@ -3005,7 +2987,7 @@
         <v>320</v>
       </c>
       <c r="N24" s="7">
-        <v>278972</v>
+        <v>268997</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>60</v>
@@ -3019,7 +3001,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3028,46 +3010,46 @@
         <v>71</v>
       </c>
       <c r="D25" s="7">
-        <v>104258</v>
+        <v>101881</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
       </c>
       <c r="I25" s="7">
-        <v>122362</v>
+        <v>191609</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
       </c>
       <c r="N25" s="7">
-        <v>226620</v>
+        <v>293490</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,46 +3061,46 @@
         <v>25</v>
       </c>
       <c r="D26" s="7">
-        <v>24467</v>
+        <v>23637</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
       </c>
       <c r="I26" s="7">
-        <v>37378</v>
+        <v>34310</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>69</v>
       </c>
       <c r="N26" s="7">
-        <v>61845</v>
+        <v>57947</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,46 +3112,46 @@
         <v>7</v>
       </c>
       <c r="D27" s="7">
-        <v>8628</v>
+        <v>8035</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
       </c>
       <c r="I27" s="7">
-        <v>8722</v>
+        <v>7984</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
       </c>
       <c r="N27" s="7">
-        <v>17350</v>
+        <v>16020</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,148 +3163,148 @@
         <v>7</v>
       </c>
       <c r="D28" s="7">
-        <v>13712</v>
+        <v>12924</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
       </c>
       <c r="I28" s="7">
-        <v>7522</v>
+        <v>7050</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
       </c>
       <c r="N28" s="7">
-        <v>21234</v>
+        <v>19974</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>11</v>
       </c>
       <c r="D29" s="7">
-        <v>17655</v>
+        <v>16560</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
       </c>
       <c r="I29" s="7">
-        <v>12874</v>
+        <v>11533</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
       </c>
       <c r="N29" s="7">
-        <v>30529</v>
+        <v>28094</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
         <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>5868</v>
+        <v>5623</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
       </c>
       <c r="I30" s="7">
-        <v>5537</v>
+        <v>5183</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
       </c>
       <c r="N30" s="7">
-        <v>11404</v>
+        <v>10806</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,7 +3316,7 @@
         <v>127</v>
       </c>
       <c r="D31" s="7">
-        <v>174587</v>
+        <v>168662</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>60</v>
@@ -3349,7 +3331,7 @@
         <v>202</v>
       </c>
       <c r="I31" s="7">
-        <v>194395</v>
+        <v>257669</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>60</v>
@@ -3364,7 +3346,7 @@
         <v>329</v>
       </c>
       <c r="N31" s="7">
-        <v>368982</v>
+        <v>426330</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>60</v>
@@ -3378,7 +3360,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3387,46 +3369,46 @@
         <v>23</v>
       </c>
       <c r="D32" s="7">
-        <v>16781</v>
+        <v>15278</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
       </c>
       <c r="I32" s="7">
-        <v>12736</v>
+        <v>11011</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>43</v>
       </c>
       <c r="N32" s="7">
-        <v>29517</v>
+        <v>26289</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,46 +3420,46 @@
         <v>117</v>
       </c>
       <c r="D33" s="7">
-        <v>84855</v>
+        <v>77646</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H33" s="7">
         <v>194</v>
       </c>
       <c r="I33" s="7">
-        <v>94488</v>
+        <v>85959</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M33" s="7">
         <v>311</v>
       </c>
       <c r="N33" s="7">
-        <v>179344</v>
+        <v>163605</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,46 +3471,46 @@
         <v>18</v>
       </c>
       <c r="D34" s="7">
-        <v>13151</v>
+        <v>12018</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
       </c>
       <c r="I34" s="7">
-        <v>4851</v>
+        <v>4453</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
       </c>
       <c r="N34" s="7">
-        <v>18002</v>
+        <v>16470</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,103 +3522,103 @@
         <v>12</v>
       </c>
       <c r="D35" s="7">
-        <v>8686</v>
+        <v>7943</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
       </c>
       <c r="I35" s="7">
-        <v>4958</v>
+        <v>4531</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>23</v>
       </c>
       <c r="N35" s="7">
-        <v>13645</v>
+        <v>12474</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>1554</v>
+        <v>1354</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
       </c>
       <c r="I36" s="7">
-        <v>1247</v>
+        <v>1163</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
       </c>
       <c r="N36" s="7">
-        <v>2800</v>
+        <v>2518</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>99</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3645,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3660,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>110</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3675,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,7 +3675,7 @@
         <v>171</v>
       </c>
       <c r="D38" s="7">
-        <v>125027</v>
+        <v>114239</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>60</v>
@@ -3708,7 +3690,7 @@
         <v>240</v>
       </c>
       <c r="I38" s="7">
-        <v>118281</v>
+        <v>107117</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>60</v>
@@ -3723,7 +3705,7 @@
         <v>411</v>
       </c>
       <c r="N38" s="7">
-        <v>243308</v>
+        <v>221356</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>60</v>
@@ -3737,7 +3719,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3746,46 +3728,46 @@
         <v>56</v>
       </c>
       <c r="D39" s="7">
-        <v>51370</v>
+        <v>50181</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>59</v>
       </c>
       <c r="I39" s="7">
-        <v>45175</v>
+        <v>42027</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M39" s="7">
         <v>115</v>
       </c>
       <c r="N39" s="7">
-        <v>96545</v>
+        <v>92209</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,46 +3779,46 @@
         <v>26</v>
       </c>
       <c r="D40" s="7">
-        <v>22208</v>
+        <v>21507</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H40" s="7">
         <v>26</v>
       </c>
       <c r="I40" s="7">
-        <v>17844</v>
+        <v>16704</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M40" s="7">
         <v>52</v>
       </c>
       <c r="N40" s="7">
-        <v>40052</v>
+        <v>38211</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,46 +3830,46 @@
         <v>17</v>
       </c>
       <c r="D41" s="7">
-        <v>15194</v>
+        <v>15011</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
       </c>
       <c r="I41" s="7">
-        <v>6255</v>
+        <v>5796</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M41" s="7">
         <v>26</v>
       </c>
       <c r="N41" s="7">
-        <v>21449</v>
+        <v>20808</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,64 +3881,64 @@
         <v>30</v>
       </c>
       <c r="D42" s="7">
-        <v>27039</v>
+        <v>26213</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>24</v>
       </c>
       <c r="I42" s="7">
-        <v>16749</v>
+        <v>15467</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M42" s="7">
         <v>54</v>
       </c>
       <c r="N42" s="7">
-        <v>43788</v>
+        <v>41681</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="7">
         <v>16</v>
       </c>
       <c r="D43" s="7">
-        <v>14298</v>
+        <v>13803</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>299</v>
@@ -3965,7 +3947,7 @@
         <v>9</v>
       </c>
       <c r="I43" s="7">
-        <v>5861</v>
+        <v>5412</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>300</v>
@@ -3980,7 +3962,7 @@
         <v>25</v>
       </c>
       <c r="N43" s="7">
-        <v>20159</v>
+        <v>19215</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>303</v>
@@ -3995,52 +3977,52 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" s="7">
         <v>10</v>
       </c>
       <c r="D44" s="7">
-        <v>8561</v>
+        <v>8344</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
       </c>
       <c r="I44" s="7">
-        <v>1059</v>
+        <v>995</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M44" s="7">
         <v>12</v>
       </c>
       <c r="N44" s="7">
-        <v>9620</v>
+        <v>9339</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>47</v>
+        <v>312</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,7 +4034,7 @@
         <v>155</v>
       </c>
       <c r="D45" s="7">
-        <v>138669</v>
+        <v>135061</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>60</v>
@@ -4067,7 +4049,7 @@
         <v>129</v>
       </c>
       <c r="I45" s="7">
-        <v>92945</v>
+        <v>86402</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>60</v>
@@ -4082,7 +4064,7 @@
         <v>284</v>
       </c>
       <c r="N45" s="7">
-        <v>231614</v>
+        <v>221463</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -4096,7 +4078,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4105,46 +4087,46 @@
         <v>203</v>
       </c>
       <c r="D46" s="7">
-        <v>217607</v>
+        <v>214475</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H46" s="7">
         <v>287</v>
       </c>
       <c r="I46" s="7">
-        <v>212662</v>
+        <v>199694</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M46" s="7">
         <v>490</v>
       </c>
       <c r="N46" s="7">
-        <v>430269</v>
+        <v>414169</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,46 +4138,46 @@
         <v>68</v>
       </c>
       <c r="D47" s="7">
-        <v>71754</v>
+        <v>74410</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H47" s="7">
         <v>90</v>
       </c>
       <c r="I47" s="7">
-        <v>64568</v>
+        <v>60252</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M47" s="7">
         <v>158</v>
       </c>
       <c r="N47" s="7">
-        <v>136322</v>
+        <v>134662</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,46 +4189,46 @@
         <v>19</v>
       </c>
       <c r="D48" s="7">
-        <v>20382</v>
+        <v>19766</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H48" s="7">
         <v>21</v>
       </c>
       <c r="I48" s="7">
-        <v>16438</v>
+        <v>15319</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M48" s="7">
         <v>40</v>
       </c>
       <c r="N48" s="7">
-        <v>36820</v>
+        <v>35086</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,148 +4240,148 @@
         <v>17</v>
       </c>
       <c r="D49" s="7">
-        <v>20155</v>
+        <v>19821</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H49" s="7">
         <v>26</v>
       </c>
       <c r="I49" s="7">
-        <v>15681</v>
+        <v>14775</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M49" s="7">
         <v>43</v>
       </c>
       <c r="N49" s="7">
-        <v>35836</v>
+        <v>34595</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
       </c>
       <c r="D50" s="7">
-        <v>1122</v>
+        <v>1078</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="H50" s="7">
         <v>19</v>
       </c>
       <c r="I50" s="7">
-        <v>12244</v>
+        <v>11609</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>347</v>
+        <v>146</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M50" s="7">
         <v>20</v>
       </c>
       <c r="N50" s="7">
-        <v>13366</v>
+        <v>12687</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>251</v>
+        <v>354</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>193</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" s="7">
         <v>6</v>
       </c>
       <c r="D51" s="7">
-        <v>4830</v>
+        <v>4751</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H51" s="7">
         <v>8</v>
       </c>
       <c r="I51" s="7">
-        <v>6276</v>
+        <v>5925</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M51" s="7">
         <v>14</v>
       </c>
       <c r="N51" s="7">
-        <v>11106</v>
+        <v>10676</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,7 +4393,7 @@
         <v>314</v>
       </c>
       <c r="D52" s="7">
-        <v>335849</v>
+        <v>334301</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>60</v>
@@ -4426,7 +4408,7 @@
         <v>451</v>
       </c>
       <c r="I52" s="7">
-        <v>327870</v>
+        <v>307574</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>60</v>
@@ -4441,7 +4423,7 @@
         <v>765</v>
       </c>
       <c r="N52" s="7">
-        <v>663719</v>
+        <v>641875</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>60</v>
@@ -4455,7 +4437,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4464,46 +4446,46 @@
         <v>213</v>
       </c>
       <c r="D53" s="7">
-        <v>309622</v>
+        <v>461729</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H53" s="7">
         <v>168</v>
       </c>
       <c r="I53" s="7">
-        <v>144299</v>
+        <v>119862</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M53" s="7">
         <v>381</v>
       </c>
       <c r="N53" s="7">
-        <v>453921</v>
+        <v>581591</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,46 +4497,46 @@
         <v>124</v>
       </c>
       <c r="D54" s="7">
-        <v>144022</v>
+        <v>121799</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H54" s="7">
         <v>126</v>
       </c>
       <c r="I54" s="7">
-        <v>109398</v>
+        <v>90862</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M54" s="7">
         <v>250</v>
       </c>
       <c r="N54" s="7">
-        <v>253421</v>
+        <v>212661</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,46 +4548,46 @@
         <v>26</v>
       </c>
       <c r="D55" s="7">
-        <v>26017</v>
+        <v>22368</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H55" s="7">
         <v>51</v>
       </c>
       <c r="I55" s="7">
-        <v>42440</v>
+        <v>35262</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>140</v>
+        <v>388</v>
       </c>
       <c r="M55" s="7">
         <v>77</v>
       </c>
       <c r="N55" s="7">
-        <v>68456</v>
+        <v>57630</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>24</v>
+        <v>389</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,148 +4599,148 @@
         <v>9</v>
       </c>
       <c r="D56" s="7">
-        <v>8735</v>
+        <v>7344</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>386</v>
+        <v>211</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H56" s="7">
         <v>17</v>
       </c>
       <c r="I56" s="7">
-        <v>14428</v>
+        <v>12020</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>390</v>
+        <v>162</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M56" s="7">
         <v>26</v>
       </c>
       <c r="N56" s="7">
-        <v>23163</v>
+        <v>19363</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>104</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C57" s="7">
         <v>8</v>
       </c>
       <c r="D57" s="7">
-        <v>10960</v>
+        <v>9316</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>395</v>
+        <v>256</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H57" s="7">
         <v>11</v>
       </c>
       <c r="I57" s="7">
-        <v>8458</v>
+        <v>7149</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>397</v>
+        <v>34</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M57" s="7">
         <v>19</v>
       </c>
       <c r="N57" s="7">
-        <v>19418</v>
+        <v>16465</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>400</v>
+        <v>187</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>402</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" s="7">
         <v>5</v>
       </c>
       <c r="D58" s="7">
-        <v>6735</v>
+        <v>5770</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H58" s="7">
         <v>3</v>
       </c>
       <c r="I58" s="7">
-        <v>9035</v>
+        <v>6856</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M58" s="7">
         <v>8</v>
       </c>
       <c r="N58" s="7">
-        <v>15770</v>
+        <v>12626</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>411</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,7 +4752,7 @@
         <v>385</v>
       </c>
       <c r="D59" s="7">
-        <v>506091</v>
+        <v>628325</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>60</v>
@@ -4785,7 +4767,7 @@
         <v>376</v>
       </c>
       <c r="I59" s="7">
-        <v>328058</v>
+        <v>272011</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>60</v>
@@ -4800,7 +4782,7 @@
         <v>761</v>
       </c>
       <c r="N59" s="7">
-        <v>834149</v>
+        <v>900336</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>60</v>
@@ -4823,7 +4805,7 @@
         <v>925</v>
       </c>
       <c r="D60" s="7">
-        <v>1052351</v>
+        <v>1220717</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>412</v>
@@ -4838,7 +4820,7 @@
         <v>1072</v>
       </c>
       <c r="I60" s="7">
-        <v>816329</v>
+        <v>841435</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>415</v>
@@ -4853,16 +4835,16 @@
         <v>1997</v>
       </c>
       <c r="N60" s="7">
-        <v>1868681</v>
+        <v>2062152</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>70</v>
+        <v>418</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,46 +4856,46 @@
         <v>420</v>
       </c>
       <c r="D61" s="7">
-        <v>417528</v>
+        <v>390512</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H61" s="7">
         <v>563</v>
       </c>
       <c r="I61" s="7">
-        <v>388222</v>
+        <v>349728</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M61" s="7">
         <v>983</v>
       </c>
       <c r="N61" s="7">
-        <v>805750</v>
+        <v>740240</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,46 +4907,46 @@
         <v>135</v>
       </c>
       <c r="D62" s="7">
-        <v>146624</v>
+        <v>142323</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="H62" s="7">
         <v>158</v>
       </c>
       <c r="I62" s="7">
-        <v>118268</v>
+        <v>106490</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M62" s="7">
         <v>293</v>
       </c>
       <c r="N62" s="7">
-        <v>264892</v>
+        <v>248813</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>436</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,10 +4958,10 @@
         <v>110</v>
       </c>
       <c r="D63" s="7">
-        <v>126396</v>
+        <v>123297</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>437</v>
+        <v>300</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>438</v>
@@ -4991,28 +4973,28 @@
         <v>134</v>
       </c>
       <c r="I63" s="7">
-        <v>95224</v>
+        <v>87922</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>440</v>
       </c>
       <c r="K63" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="M63" s="7">
         <v>244</v>
       </c>
       <c r="N63" s="7">
-        <v>221620</v>
+        <v>211219</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>196</v>
+        <v>442</v>
       </c>
       <c r="Q63" s="7" t="s">
         <v>443</v>
@@ -5021,103 +5003,103 @@
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64" s="7">
         <v>57</v>
       </c>
       <c r="D64" s="7">
-        <v>66876</v>
+        <v>63084</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>444</v>
       </c>
       <c r="F64" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H64" s="7">
         <v>79</v>
       </c>
       <c r="I64" s="7">
-        <v>56483</v>
+        <v>51755</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M64" s="7">
         <v>136</v>
       </c>
       <c r="N64" s="7">
-        <v>123358</v>
+        <v>114840</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65" s="7">
         <v>32</v>
       </c>
       <c r="D65" s="7">
-        <v>31900</v>
+        <v>30278</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>453</v>
+        <v>165</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H65" s="7">
         <v>32</v>
       </c>
       <c r="I65" s="7">
-        <v>29636</v>
+        <v>26159</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>456</v>
+        <v>309</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M65" s="7">
         <v>64</v>
       </c>
       <c r="N65" s="7">
-        <v>61536</v>
+        <v>56437</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>457</v>
+        <v>55</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>458</v>
+        <v>217</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>459</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,7 +5111,7 @@
         <v>1679</v>
       </c>
       <c r="D66" s="7">
-        <v>1841674</v>
+        <v>1970211</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>60</v>
@@ -5144,7 +5126,7 @@
         <v>2038</v>
       </c>
       <c r="I66" s="7">
-        <v>1504161</v>
+        <v>1463489</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>60</v>
@@ -5159,7 +5141,7 @@
         <v>3717</v>
       </c>
       <c r="N66" s="7">
-        <v>3345836</v>
+        <v>3433701</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>60</v>
@@ -5173,7 +5155,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
